--- a/Doc/AO - SPL's/SysteemTest.xlsx
+++ b/Doc/AO - SPL's/SysteemTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BackYardBBQ\Doc\AO - SPL's\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Desktop\BackYardBBQ\Doc\AO - SPL's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E90280-93F6-4D7A-AF20-0EC870CBB221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F3248-124F-42EA-AFC8-C0E0F62A27F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
     <definedName name="_Toc2088130" localSheetId="0">TestPlan!$S$12</definedName>
     <definedName name="_Toc2088131" localSheetId="0">TestPlan!$S$14</definedName>
     <definedName name="_Toc2088132" localSheetId="0">TestPlan!$S$16</definedName>
+    <definedName name="BenoemdBereik1">'TestCases &amp; resultaten'!$I:$I</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'TestCases &amp; resultaten'!$A:$B,'TestCases &amp; resultaten'!$1:$2</definedName>
-    <definedName name="BenoemdBereik1">'TestCases &amp; resultaten'!$I:$I</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Benodigde informatie voor het testen</t>
   </si>
@@ -461,12 +461,33 @@
   <si>
     <t>Het account word aangemaakt.</t>
   </si>
+  <si>
+    <t>Layout goedgekeurd</t>
+  </si>
+  <si>
+    <t>n.v.t</t>
+  </si>
+  <si>
+    <t>De klant is over de website gegaan en keurde hem goed.</t>
+  </si>
+  <si>
+    <t>Icon/favicon en huistell is correct gebruikt</t>
+  </si>
+  <si>
+    <t>nee</t>
+  </si>
+  <si>
+    <t>Peter Nocker</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -486,12 +507,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1116,9 +1131,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1234,7 +1249,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1255,10 +1270,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1288,16 +1299,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,10 +1344,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1748,45 +1798,6 @@
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
         </left>
         <right style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -2283,27 +2294,27 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Situatie" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Actie" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Verwacht Resultaat" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Correct _x000a_Ja/Nee" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Opmerkingen" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Verrichte handelingen" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Aanpassen _x000a_Ja/Nee" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Prioriteit" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Naam Tester" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Datum Getest" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Correct _x000a_Ja/Nee" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Opmerkingen" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Verrichte handelingen" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Aanpassen _x000a_Ja/Nee" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Prioriteit" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Naam Tester" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Datum Getest" dataDxfId="6">
       <calculatedColumnFormula>IF(L2="","",L2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Richtlijn wijzigingen" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Datum opgelost" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Naam ontwikkelaar" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Oplossing" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Documentatie aangepast Ja/Nee" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Richtlijn wijzigingen" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Datum opgelost" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Naam ontwikkelaar" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Oplossing" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Documentatie aangepast Ja/Nee" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2619,69 +2630,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="35.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:19" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="41"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="41"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="41"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="47"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S11" s="50"/>
+      <c r="S11" s="49"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="S12" s="51"/>
+      <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="S13" s="48"/>
+      <c r="S13" s="47"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="S14" s="51"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="S15" s="48"/>
+      <c r="S15" s="47"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="S16" s="51"/>
+      <c r="S16" s="50"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" autoFilter="0"/>
@@ -2710,16 +2721,16 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="17" customWidth="1"/>
@@ -2740,29 +2751,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -2833,16 +2844,28 @@
       <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="32"/>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="32">
+        <v>44719</v>
+      </c>
       <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="4"/>
+      <c r="N3" s="32">
+        <v>44719</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="15"/>
     </row>
@@ -2862,16 +2885,28 @@
       <c r="E4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="29"/>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="32">
+        <v>44720</v>
+      </c>
       <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="4"/>
+      <c r="N4" s="32">
+        <v>44720</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="15"/>
     </row>
@@ -2891,16 +2926,28 @@
       <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="29"/>
+      <c r="J5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="32">
+        <v>44721</v>
+      </c>
       <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="32">
+        <v>44721</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="15"/>
     </row>
@@ -2908,20 +2955,40 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="29"/>
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="32">
+        <v>44722</v>
+      </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="4"/>
+      <c r="N6" s="32">
+        <v>44722</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="15"/>
     </row>
@@ -2929,20 +2996,40 @@
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="29"/>
+      <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="32">
+        <v>44723</v>
+      </c>
       <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="32">
+        <v>44723</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="15"/>
     </row>
@@ -3916,7 +4003,7 @@
           <x14:formula1>
             <xm:f>Settings!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I52 F3:F52 Q3:Q52</xm:sqref>
+          <xm:sqref>I3:I52 Q3:Q52 F3:F52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -3994,6 +4081,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="24" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="b67f5c0a98b70993da9b41da0b56f08b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0040e4591f2fef008f42269fd05e76ca" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4274,15 +4370,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{051E6000-6DB9-4FEC-AC64-62CA7592EBDE}">
   <ds:schemaRefs>
@@ -4296,6 +4383,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D81714B-3B8F-4602-994C-B2E47BD0EFA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5B33C4A-EBC5-4236-B5BC-A1228E222011}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4313,12 +4408,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D81714B-3B8F-4602-994C-B2E47BD0EFA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>